--- a/natmiOut/OldD2/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H2">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I2">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J2">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>245.6584282913993</v>
+        <v>77.8126272242115</v>
       </c>
       <c r="R2">
-        <v>245.6584282913993</v>
+        <v>311.250508896846</v>
       </c>
       <c r="S2">
-        <v>0.1430723040554881</v>
+        <v>0.02991927639105753</v>
       </c>
       <c r="T2">
-        <v>0.1430723040554881</v>
+        <v>0.01741850500327241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H3">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I3">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J3">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>166.2449929341231</v>
+        <v>56.15213057138399</v>
       </c>
       <c r="R3">
-        <v>166.2449929341231</v>
+        <v>336.912783428304</v>
       </c>
       <c r="S3">
-        <v>0.09682164923956756</v>
+        <v>0.02159072600994566</v>
       </c>
       <c r="T3">
-        <v>0.09682164923956756</v>
+        <v>0.01885464227709032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H4">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I4">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J4">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>125.4199335033575</v>
+        <v>39.966962865471</v>
       </c>
       <c r="R4">
-        <v>125.4199335033575</v>
+        <v>239.801777192826</v>
       </c>
       <c r="S4">
-        <v>0.07304499579198724</v>
+        <v>0.01536746221198261</v>
       </c>
       <c r="T4">
-        <v>0.07304499579198724</v>
+        <v>0.01342002128970393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H5">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I5">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J5">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>117.9260032775521</v>
+        <v>37.651998655105</v>
       </c>
       <c r="R5">
-        <v>117.9260032775521</v>
+        <v>225.91199193063</v>
       </c>
       <c r="S5">
-        <v>0.06868050534362681</v>
+        <v>0.01447734891654313</v>
       </c>
       <c r="T5">
-        <v>0.06868050534362681</v>
+        <v>0.01264270755954671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H6">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I6">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J6">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>173.2659157906191</v>
+        <v>57.55586187505199</v>
       </c>
       <c r="R6">
-        <v>173.2659157906191</v>
+        <v>345.3351712503119</v>
       </c>
       <c r="S6">
-        <v>0.1009106585874707</v>
+        <v>0.02213046649104015</v>
       </c>
       <c r="T6">
-        <v>0.1009106585874707</v>
+        <v>0.01932598417123568</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.49270970102685</v>
+        <v>0.472803</v>
       </c>
       <c r="H7">
-        <v>1.49270970102685</v>
+        <v>0.9456059999999999</v>
       </c>
       <c r="I7">
-        <v>0.6038612194659926</v>
+        <v>0.1289198617355981</v>
       </c>
       <c r="J7">
-        <v>0.6038612194659926</v>
+        <v>0.09646945066729889</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>208.3282932333015</v>
+        <v>66.1490471803935</v>
       </c>
       <c r="R7">
-        <v>208.3282932333015</v>
+        <v>264.596188721574</v>
       </c>
       <c r="S7">
-        <v>0.1213311064478521</v>
+        <v>0.02543458171502901</v>
       </c>
       <c r="T7">
-        <v>0.1213311064478521</v>
+        <v>0.01480759036644985</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H8">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I8">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J8">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>62.20193421609406</v>
+        <v>259.9847988542763</v>
       </c>
       <c r="R8">
-        <v>62.20193421609406</v>
+        <v>1559.908793125658</v>
       </c>
       <c r="S8">
-        <v>0.03622661801958639</v>
+        <v>0.09996522841956278</v>
       </c>
       <c r="T8">
-        <v>0.03622661801958639</v>
+        <v>0.08729713957419731</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H9">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I9">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J9">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>42.0940579412043</v>
+        <v>187.6135132897546</v>
       </c>
       <c r="R9">
-        <v>42.0940579412043</v>
+        <v>1688.521619607792</v>
       </c>
       <c r="S9">
-        <v>0.02451572249558419</v>
+        <v>0.07213817035941104</v>
       </c>
       <c r="T9">
-        <v>0.02451572249558419</v>
+        <v>0.09449469619668789</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H10">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I10">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J10">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>31.75695011737509</v>
+        <v>133.536203211022</v>
       </c>
       <c r="R10">
-        <v>31.75695011737509</v>
+        <v>1201.825828899198</v>
       </c>
       <c r="S10">
-        <v>0.01849535574524853</v>
+        <v>0.05134522139409074</v>
       </c>
       <c r="T10">
-        <v>0.01849535574524853</v>
+        <v>0.06725775096059555</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H11">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I11">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J11">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>29.85944976223719</v>
+        <v>125.8015266417211</v>
       </c>
       <c r="R11">
-        <v>29.85944976223719</v>
+        <v>1132.21373977549</v>
       </c>
       <c r="S11">
-        <v>0.01739024508552528</v>
+        <v>0.04837120632317504</v>
       </c>
       <c r="T11">
-        <v>0.01739024508552528</v>
+        <v>0.06336205123310881</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H12">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I12">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J12">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>43.87179048102992</v>
+        <v>192.3036106897306</v>
       </c>
       <c r="R12">
-        <v>43.87179048102992</v>
+        <v>1730.732496207576</v>
       </c>
       <c r="S12">
-        <v>0.02555107997237129</v>
+        <v>0.07394153217119678</v>
       </c>
       <c r="T12">
-        <v>0.02555107997237129</v>
+        <v>0.09685694250385626</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.377961510511904</v>
+        <v>1.579712666666667</v>
       </c>
       <c r="H13">
-        <v>0.377961510511904</v>
+        <v>4.739138</v>
       </c>
       <c r="I13">
-        <v>0.1529006601162442</v>
+        <v>0.4307424838011595</v>
       </c>
       <c r="J13">
-        <v>0.1529006601162442</v>
+        <v>0.483480476537291</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>52.74975860253299</v>
+        <v>221.0148576020003</v>
       </c>
       <c r="R13">
-        <v>52.74975860253299</v>
+        <v>1326.089145612002</v>
       </c>
       <c r="S13">
-        <v>0.03072163879792853</v>
+        <v>0.08498112513372316</v>
       </c>
       <c r="T13">
-        <v>0.03072163879792853</v>
+        <v>0.07421189606884517</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.601270441457087</v>
+        <v>0.1572373333333333</v>
       </c>
       <c r="H14">
-        <v>0.601270441457087</v>
+        <v>0.471712</v>
       </c>
       <c r="I14">
-        <v>0.2432381204177632</v>
+        <v>0.04287412574160376</v>
       </c>
       <c r="J14">
-        <v>0.2432381204177632</v>
+        <v>0.04812342298290504</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>98.95236262269522</v>
+        <v>25.87769114069867</v>
       </c>
       <c r="R14">
-        <v>98.95236262269522</v>
+        <v>155.266146844192</v>
       </c>
       <c r="S14">
-        <v>0.05763019250196361</v>
+        <v>0.009950079070972149</v>
       </c>
       <c r="T14">
-        <v>0.05763019250196361</v>
+        <v>0.008689155771117821</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.601270441457087</v>
+        <v>0.1572373333333333</v>
       </c>
       <c r="H15">
-        <v>0.601270441457087</v>
+        <v>0.471712</v>
       </c>
       <c r="I15">
-        <v>0.2432381204177632</v>
+        <v>0.04287412574160376</v>
       </c>
       <c r="J15">
-        <v>0.2432381204177632</v>
+        <v>0.04812342298290504</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>66.96425984420698</v>
+        <v>18.67418622984533</v>
       </c>
       <c r="R15">
-        <v>66.96425984420698</v>
+        <v>168.067676068608</v>
       </c>
       <c r="S15">
-        <v>0.03900021266079443</v>
+        <v>0.007180301695493677</v>
       </c>
       <c r="T15">
-        <v>0.03900021266079443</v>
+        <v>0.009405567453898166</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.601270441457087</v>
+        <v>0.1572373333333333</v>
       </c>
       <c r="H16">
-        <v>0.601270441457087</v>
+        <v>0.471712</v>
       </c>
       <c r="I16">
-        <v>0.2432381204177632</v>
+        <v>0.04287412574160376</v>
       </c>
       <c r="J16">
-        <v>0.2432381204177632</v>
+        <v>0.04812342298290504</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>50.51973517235539</v>
+        <v>13.291579500128</v>
       </c>
       <c r="R16">
-        <v>50.51973517235539</v>
+        <v>119.624215501152</v>
       </c>
       <c r="S16">
-        <v>0.02942286556848017</v>
+        <v>0.005110667187629763</v>
       </c>
       <c r="T16">
-        <v>0.02942286556848017</v>
+        <v>0.006694527194845234</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.601270441457087</v>
+        <v>0.1572373333333333</v>
       </c>
       <c r="H17">
-        <v>0.601270441457087</v>
+        <v>0.471712</v>
       </c>
       <c r="I17">
-        <v>0.2432381204177632</v>
+        <v>0.04287412574160376</v>
       </c>
       <c r="J17">
-        <v>0.2432381204177632</v>
+        <v>0.04812342298290504</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>47.50114506604135</v>
+        <v>12.52170536819555</v>
       </c>
       <c r="R17">
-        <v>47.50114506604135</v>
+        <v>112.69534831376</v>
       </c>
       <c r="S17">
-        <v>0.02766482842514568</v>
+        <v>0.00481464740573445</v>
       </c>
       <c r="T17">
-        <v>0.02766482842514568</v>
+        <v>0.006306767161300689</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.601270441457087</v>
+        <v>0.1572373333333333</v>
       </c>
       <c r="H18">
-        <v>0.601270441457087</v>
+        <v>0.471712</v>
       </c>
       <c r="I18">
-        <v>0.2432381204177632</v>
+        <v>0.04287412574160376</v>
       </c>
       <c r="J18">
-        <v>0.2432381204177632</v>
+        <v>0.04812342298290504</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>69.79232037229059</v>
+        <v>19.14101695406933</v>
       </c>
       <c r="R18">
-        <v>69.79232037229059</v>
+        <v>172.269152586624</v>
       </c>
       <c r="S18">
-        <v>0.04064728472982741</v>
+        <v>0.007359800036111965</v>
       </c>
       <c r="T18">
-        <v>0.04064728472982741</v>
+        <v>0.009640694586732661</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1572373333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.471712</v>
+      </c>
+      <c r="I19">
+        <v>0.04287412574160376</v>
+      </c>
+      <c r="J19">
+        <v>0.04812342298290504</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>139.9082645</v>
+      </c>
+      <c r="N19">
+        <v>279.816529</v>
+      </c>
+      <c r="O19">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P19">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q19">
+        <v>21.99880242127467</v>
+      </c>
+      <c r="R19">
+        <v>131.992814527648</v>
+      </c>
+      <c r="S19">
+        <v>0.00845863034566177</v>
+      </c>
+      <c r="T19">
+        <v>0.007386710815010471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.740156</v>
+      </c>
+      <c r="I20">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J20">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>164.5772705</v>
+      </c>
+      <c r="N20">
+        <v>329.154541</v>
+      </c>
+      <c r="O20">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P20">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q20">
+        <v>40.60428474139933</v>
+      </c>
+      <c r="R20">
+        <v>243.625708448396</v>
+      </c>
+      <c r="S20">
+        <v>0.01561251510424679</v>
+      </c>
+      <c r="T20">
+        <v>0.01363401986578141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.740156</v>
+      </c>
+      <c r="I21">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J21">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>118.764328</v>
+      </c>
+      <c r="N21">
+        <v>356.292984</v>
+      </c>
+      <c r="O21">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P21">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q21">
+        <v>29.30137665172267</v>
+      </c>
+      <c r="R21">
+        <v>263.712389865504</v>
+      </c>
+      <c r="S21">
+        <v>0.01126650028349887</v>
+      </c>
+      <c r="T21">
+        <v>0.01475813035158624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.740156</v>
+      </c>
+      <c r="I22">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J22">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N22">
+        <v>253.595871</v>
+      </c>
+      <c r="O22">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P22">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q22">
+        <v>20.855611721764</v>
+      </c>
+      <c r="R22">
+        <v>187.700505495876</v>
+      </c>
+      <c r="S22">
+        <v>0.00801906880242032</v>
+      </c>
+      <c r="T22">
+        <v>0.0105042790313324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.740156</v>
+      </c>
+      <c r="I23">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J23">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N23">
+        <v>238.907105</v>
+      </c>
+      <c r="O23">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P23">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q23">
+        <v>19.64761413426444</v>
+      </c>
+      <c r="R23">
+        <v>176.82852720838</v>
+      </c>
+      <c r="S23">
+        <v>0.007554588743213628</v>
+      </c>
+      <c r="T23">
+        <v>0.009895850762837648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.740156</v>
+      </c>
+      <c r="I24">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J24">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>121.733284</v>
+      </c>
+      <c r="N24">
+        <v>365.199852</v>
+      </c>
+      <c r="O24">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P24">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q24">
+        <v>30.03387351743466</v>
+      </c>
+      <c r="R24">
+        <v>270.304861656912</v>
+      </c>
+      <c r="S24">
+        <v>0.0115481483522329</v>
+      </c>
+      <c r="T24">
+        <v>0.01512706469739523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.740156</v>
+      </c>
+      <c r="I25">
+        <v>0.06727312727342631</v>
+      </c>
+      <c r="J25">
+        <v>0.07550971834792217</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>139.9082645</v>
+      </c>
+      <c r="N25">
+        <v>279.816529</v>
+      </c>
+      <c r="O25">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P25">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q25">
+        <v>34.51798047308733</v>
+      </c>
+      <c r="R25">
+        <v>207.107882838524</v>
+      </c>
+      <c r="S25">
+        <v>0.01327230598781382</v>
+      </c>
+      <c r="T25">
+        <v>0.01159037363898923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H26">
+        <v>1.450874</v>
+      </c>
+      <c r="I26">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J26">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>164.5772705</v>
+      </c>
+      <c r="N26">
+        <v>329.154541</v>
+      </c>
+      <c r="O26">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P26">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q26">
+        <v>79.59362758647232</v>
+      </c>
+      <c r="R26">
+        <v>477.561765518834</v>
+      </c>
+      <c r="S26">
+        <v>0.03060407838260982</v>
+      </c>
+      <c r="T26">
+        <v>0.02672577799645715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H27">
+        <v>1.450874</v>
+      </c>
+      <c r="I27">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J27">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>118.764328</v>
+      </c>
+      <c r="N27">
+        <v>356.292984</v>
+      </c>
+      <c r="O27">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P27">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q27">
+        <v>57.43735854089066</v>
+      </c>
+      <c r="R27">
+        <v>516.936226868016</v>
+      </c>
+      <c r="S27">
+        <v>0.02208490146985383</v>
+      </c>
+      <c r="T27">
+        <v>0.02892929006280749</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.601270441457087</v>
-      </c>
-      <c r="H19">
-        <v>0.601270441457087</v>
-      </c>
-      <c r="I19">
-        <v>0.2432381204177632</v>
-      </c>
-      <c r="J19">
-        <v>0.2432381204177632</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N19">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O19">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P19">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q19">
-        <v>83.91560981630919</v>
-      </c>
-      <c r="R19">
-        <v>83.91560981630919</v>
-      </c>
-      <c r="S19">
-        <v>0.04887273653155188</v>
-      </c>
-      <c r="T19">
-        <v>0.04887273653155188</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H28">
+        <v>1.450874</v>
+      </c>
+      <c r="I28">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J28">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N28">
+        <v>253.595871</v>
+      </c>
+      <c r="O28">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P28">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q28">
+        <v>40.881739526806</v>
+      </c>
+      <c r="R28">
+        <v>367.935655741254</v>
+      </c>
+      <c r="S28">
+        <v>0.01571919761461473</v>
+      </c>
+      <c r="T28">
+        <v>0.02059077456009998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H29">
+        <v>1.450874</v>
+      </c>
+      <c r="I29">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J29">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N29">
+        <v>238.907105</v>
+      </c>
+      <c r="O29">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P29">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q29">
+        <v>38.51378967330778</v>
+      </c>
+      <c r="R29">
+        <v>346.62410705977</v>
+      </c>
+      <c r="S29">
+        <v>0.01480871112065744</v>
+      </c>
+      <c r="T29">
+        <v>0.01939811685601591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H30">
+        <v>1.450874</v>
+      </c>
+      <c r="I30">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J30">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>121.733284</v>
+      </c>
+      <c r="N30">
+        <v>365.199852</v>
+      </c>
+      <c r="O30">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P30">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q30">
+        <v>58.87321889673866</v>
+      </c>
+      <c r="R30">
+        <v>529.858970070648</v>
+      </c>
+      <c r="S30">
+        <v>0.02263699570414556</v>
+      </c>
+      <c r="T30">
+        <v>0.02965248524063658</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4836246666666666</v>
+      </c>
+      <c r="H31">
+        <v>1.450874</v>
+      </c>
+      <c r="I31">
+        <v>0.1318706208687157</v>
+      </c>
+      <c r="J31">
+        <v>0.1480162115801577</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>139.9082645</v>
+      </c>
+      <c r="N31">
+        <v>279.816529</v>
+      </c>
+      <c r="O31">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P31">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q31">
+        <v>67.66308778272433</v>
+      </c>
+      <c r="R31">
+        <v>405.978526696346</v>
+      </c>
+      <c r="S31">
+        <v>0.02601673657683433</v>
+      </c>
+      <c r="T31">
+        <v>0.02271976686414062</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.7273215</v>
+      </c>
+      <c r="H32">
+        <v>1.454643</v>
+      </c>
+      <c r="I32">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J32">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>164.5772705</v>
+      </c>
+      <c r="N32">
+        <v>329.154541</v>
+      </c>
+      <c r="O32">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P32">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q32">
+        <v>119.7005872459657</v>
+      </c>
+      <c r="R32">
+        <v>478.8023489838629</v>
+      </c>
+      <c r="S32">
+        <v>0.04602536993982389</v>
+      </c>
+      <c r="T32">
+        <v>0.02679520474010866</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.7273215</v>
+      </c>
+      <c r="H33">
+        <v>1.454643</v>
+      </c>
+      <c r="I33">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J33">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>118.764328</v>
+      </c>
+      <c r="N33">
+        <v>356.292984</v>
+      </c>
+      <c r="O33">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P33">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q33">
+        <v>86.379849187452</v>
+      </c>
+      <c r="R33">
+        <v>518.2790951247119</v>
+      </c>
+      <c r="S33">
+        <v>0.03321340860282759</v>
+      </c>
+      <c r="T33">
+        <v>0.02900444096788037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.7273215</v>
+      </c>
+      <c r="H34">
+        <v>1.454643</v>
+      </c>
+      <c r="I34">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J34">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N34">
+        <v>253.595871</v>
+      </c>
+      <c r="O34">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P34">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q34">
+        <v>61.4819097631755</v>
+      </c>
+      <c r="R34">
+        <v>368.891458579053</v>
+      </c>
+      <c r="S34">
+        <v>0.02364004811139632</v>
+      </c>
+      <c r="T34">
+        <v>0.02064426413212141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.7273215</v>
+      </c>
+      <c r="H35">
+        <v>1.454643</v>
+      </c>
+      <c r="I35">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J35">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N35">
+        <v>238.907105</v>
+      </c>
+      <c r="O35">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P35">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q35">
+        <v>57.9207579897525</v>
+      </c>
+      <c r="R35">
+        <v>347.524547938515</v>
+      </c>
+      <c r="S35">
+        <v>0.02227077055349379</v>
+      </c>
+      <c r="T35">
+        <v>0.0194485082080081</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.7273215</v>
+      </c>
+      <c r="H36">
+        <v>1.454643</v>
+      </c>
+      <c r="I36">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J36">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>121.733284</v>
+      </c>
+      <c r="N36">
+        <v>365.199852</v>
+      </c>
+      <c r="O36">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P36">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q36">
+        <v>88.53923471880599</v>
+      </c>
+      <c r="R36">
+        <v>531.2354083128359</v>
+      </c>
+      <c r="S36">
+        <v>0.03404370125393253</v>
+      </c>
+      <c r="T36">
+        <v>0.02972951482202818</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.7273215</v>
+      </c>
+      <c r="H37">
+        <v>1.454643</v>
+      </c>
+      <c r="I37">
+        <v>0.1983197805794968</v>
+      </c>
+      <c r="J37">
+        <v>0.1484007198844251</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>139.9082645</v>
+      </c>
+      <c r="N37">
+        <v>279.816529</v>
+      </c>
+      <c r="O37">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P37">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q37">
+        <v>101.7582887985367</v>
+      </c>
+      <c r="R37">
+        <v>407.033155194147</v>
+      </c>
+      <c r="S37">
+        <v>0.03912648211802267</v>
+      </c>
+      <c r="T37">
+        <v>0.02277878701427836</v>
       </c>
     </row>
   </sheetData>
